--- a/biology/Botanique/Sycomore/Sycomore.xlsx
+++ b/biology/Botanique/Sycomore/Sycomore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sycomore  (du grec « σῦκον, sûkon », figue et « μόρον, moron », mûre) est le nom donné à plusieurs espèces d'arbres, très différentes.
 À l'origine, le terme « sycomore » désignait le figuier sycomore (Ficus sycomorus L.).
-Par la suite, on a aussi appelé une espèce d'érable, Acer pseudoplatanus L., érable sycomore[1] en raison d'une légère ressemblance de ses feuilles avec celles du figuier sycomore.
+Par la suite, on a aussi appelé une espèce d'érable, Acer pseudoplatanus L., érable sycomore en raison d'une légère ressemblance de ses feuilles avec celles du figuier sycomore.
 			Feuillage d'érable sycomore.
 			Inflorescence de l'érable sycomore.
 			Le fruit du sycomore.
@@ -516,7 +528,9 @@
           <t>En langue anglaise</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Amérique du Nord, le nom vernaculaire du genre Platanus est Sycamore (American sycamore, California sycamore, etc. —Voir la page en faisant la liste en anglais dans la section latérale "Dans les autres langues".)
 </t>
@@ -547,9 +561,11 @@
           <t>Dans l'Évangile</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'Évangile selon Saint Luc[2], un collecteur d'impôts, de petite taille, du nom de Zachée, travaillant pour le compte des Romains, et réputé voleur, grimpe sur un sycomore pour dominer la foule et voir Jésus passer. Connu sous le nom de « figuier d'Égypte » et endogène de la Shéphélah[3], cet arbre est symbole de réhabilitation parce qu'il développe de nouvelles branches quand on le coupe[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'Évangile selon Saint Luc, un collecteur d'impôts, de petite taille, du nom de Zachée, travaillant pour le compte des Romains, et réputé voleur, grimpe sur un sycomore pour dominer la foule et voir Jésus passer. Connu sous le nom de « figuier d'Égypte » et endogène de la Shéphélah, cet arbre est symbole de réhabilitation parce qu'il développe de nouvelles branches quand on le coupe.
 </t>
         </is>
       </c>
